--- a/out/dimension_1/rastrigin/stat.xlsx
+++ b/out/dimension_1/rastrigin/stat.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Statistic"/>
-  <dimension ref="A1:DF5"/>
+  <dimension ref="A1:DF7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1793,6 +1793,184 @@
       </c>
       <c r="DF5">
         <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>196700</v>
+      </c>
+      <c r="C6">
+        <v>263</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.019011406844106463</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>0.9809885931558935</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <v/>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
+      <c r="Z6" t="str">
+        <v/>
+      </c>
+      <c r="AA6" t="str">
+        <v/>
+      </c>
+      <c r="AB6" t="str">
+        <v/>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>196700</v>
+      </c>
+      <c r="C7">
+        <v>263</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0.019011406844106463</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>0.9809885931558935</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
+      <c r="Z7" t="str">
+        <v/>
+      </c>
+      <c r="AA7" t="str">
+        <v/>
+      </c>
+      <c r="AB7" t="str">
+        <v/>
+      </c>
+      <c r="AC7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/out/dimension_1/rastrigin/stat.xlsx
+++ b/out/dimension_1/rastrigin/stat.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Statistic"/>
-  <dimension ref="A1:DF7"/>
+  <dimension ref="A1:DF6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1881,95 +1881,6 @@
         <v/>
       </c>
       <c r="AC6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>196700</v>
-      </c>
-      <c r="C7">
-        <v>263</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>0.019011406844106463</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0.4</v>
-      </c>
-      <c r="J7">
-        <v>0.9809885931558935</v>
-      </c>
-      <c r="K7" t="str">
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <v/>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
-        <v/>
-      </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <v/>
-      </c>
-      <c r="Y7" t="str">
-        <v/>
-      </c>
-      <c r="Z7" t="str">
-        <v/>
-      </c>
-      <c r="AA7" t="str">
-        <v/>
-      </c>
-      <c r="AB7" t="str">
-        <v/>
-      </c>
-      <c r="AC7">
         <v>0</v>
       </c>
     </row>
